--- a/User Story HRMS.xlsx
+++ b/User Story HRMS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>USER STORY</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Room select &amp; Booking</t>
   </si>
   <si>
-    <t>Create an option to select from standard &amp; Premium rooms and then book button to navigate to payment module.</t>
-  </si>
-  <si>
     <t>Collect user information and use submit button to save it to database.</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Login Button.</t>
   </si>
   <si>
-    <t>Select option with Book Button.</t>
-  </si>
-  <si>
     <t>Payment Integration.</t>
   </si>
   <si>
@@ -144,6 +138,60 @@
   </si>
   <si>
     <t>Create logout button to logout from  session.</t>
+  </si>
+  <si>
+    <t>Tourist Destination</t>
+  </si>
+  <si>
+    <t>Tour Package</t>
+  </si>
+  <si>
+    <t>Provide  tour packages for the guests .Option to select destinations from the list and vehicle needed to travel.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Create an option to select number of rooms from standard &amp; Premium rooms and then book button to navigate to payment module.</t>
+  </si>
+  <si>
+    <t>Select no. of room and dates option with Book- Button.</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Admin/Staff Login</t>
+  </si>
+  <si>
+    <t>Login credentials for Admin and staff</t>
+  </si>
+  <si>
+    <t>Staff Management</t>
+  </si>
+  <si>
+    <t>Text Box - to enter duty calender- to select date of duty.Displayed to staff.</t>
+  </si>
+  <si>
+    <t>Allocating Duties And Duty time.</t>
+  </si>
+  <si>
+    <t>Destination Select option + Taxi select option + No of Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide login credential for staff by admin. </t>
+  </si>
+  <si>
+    <t>Add Staff- Button Remove staff Button</t>
+  </si>
+  <si>
+    <t>Staff Panel</t>
+  </si>
+  <si>
+    <t>View Duty and Dates given by admin.Apply Leave and submit reason.</t>
+  </si>
+  <si>
+    <t>Text Box and Submit Button.</t>
   </si>
 </sst>
 </file>
@@ -171,14 +219,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,21 +227,30 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,19 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,8 +287,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -293,15 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -375,90 +421,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,16 +1037,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P20"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
@@ -792,68 +1055,70 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="2"/>
@@ -862,225 +1127,313 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="79">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="80"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="80"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="82"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="79">
+        <v>2</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="80"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="86"/>
+    </row>
+    <row r="19" spans="2:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="83">
+        <v>3</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="34">
+        <v>4</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="30" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="36" t="s">
+      <c r="C23" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
-        <v>2</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="31" t="s">
+      <c r="F23" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="68"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="34">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="C25" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29">
-        <v>3</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29">
-        <v>4</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="19" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
